--- a/notebook/dataset/Gippsland-2021.xlsx
+++ b/notebook/dataset/Gippsland-2021.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Crude-Assay\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CrudeCharacterization\notebook\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C864FBF-EEC3-4A1D-B543-53C94C9315DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43C103C0-26A7-44C9-8561-ACEF26EEF662}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{1987DA19-F77C-419E-8342-39A5333B29D6}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" xr2:uid="{1987DA19-F77C-419E-8342-39A5333B29D6}"/>
   </bookViews>
   <sheets>
-    <sheet name="Details" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Input-Assay" sheetId="2" r:id="rId2"/>
     <sheet name="Distillation" sheetId="3" r:id="rId3"/>
     <sheet name="Conventional-Results" sheetId="4" r:id="rId4"/>
@@ -1553,18 +1553,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BA74484-8E1F-443D-9E56-DB2A4AAE7C77}">
   <dimension ref="A1:C69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.33203125" customWidth="1"/>
-    <col min="2" max="2" width="18.109375" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="26.36328125" customWidth="1"/>
+    <col min="2" max="2" width="18.08984375" customWidth="1"/>
+    <col min="3" max="3" width="16.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1575,7 +1575,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1586,7 +1586,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1597,7 +1597,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1608,7 +1608,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1619,7 +1619,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1630,7 +1630,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1641,7 +1641,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1652,7 +1652,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1663,7 +1663,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1674,7 +1674,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1685,7 +1685,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -1696,7 +1696,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -1707,7 +1707,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -1718,7 +1718,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -1729,7 +1729,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1740,7 +1740,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -1751,7 +1751,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -1762,7 +1762,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -1773,7 +1773,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -1781,7 +1781,7 @@
         <v>46.514052747633102</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -1789,7 +1789,7 @@
         <v>46.990239211950303</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -1797,7 +1797,7 @@
         <v>46.752145979791699</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -1805,7 +1805,7 @@
         <v>48.213282114843203</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -1813,12 +1813,12 @@
         <v>3.9711615430502403E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -1826,7 +1826,7 @@
         <v>5.4856885348829998</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -1834,7 +1834,7 @@
         <v>12.0374744269013</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>29</v>
       </c>
@@ -1842,7 +1842,7 @@
         <v>1.7946678971612401E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>30</v>
       </c>
@@ -1850,7 +1850,7 @@
         <v>0.29732377704934498</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>31</v>
       </c>
@@ -1858,7 +1858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -1866,7 +1866,7 @@
         <v>0.30329817241551699</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>33</v>
       </c>
@@ -1874,7 +1874,7 @@
         <v>20.002080961538699</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>34</v>
       </c>
@@ -1882,7 +1882,7 @@
         <v>38.329549011686801</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>35</v>
       </c>
@@ -1890,7 +1890,7 @@
         <v>-0.82183680988950603</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>36</v>
       </c>
@@ -1898,7 +1898,7 @@
         <v>12.7991229867099</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>37</v>
       </c>
@@ -1906,7 +1906,7 @@
         <v>19.6979537780356</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>38</v>
       </c>
@@ -1914,7 +1914,7 @@
         <v>44.204347452655</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>39</v>
       </c>
@@ -1922,7 +1922,7 @@
         <v>36.097698769309403</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>40</v>
       </c>
@@ -1930,17 +1930,17 @@
         <v>6.0748400976508803</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>43</v>
       </c>
@@ -1948,7 +1948,7 @@
         <v>1.2525012985089601</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>44</v>
       </c>
@@ -1956,7 +1956,7 @@
         <v>0.67191698484566098</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>45</v>
       </c>
@@ -1964,7 +1964,7 @@
         <v>18.763878203506199</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>46</v>
       </c>
@@ -1972,7 +1972,7 @@
         <v>42.552912158067301</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>47</v>
       </c>
@@ -1980,7 +1980,7 @@
         <v>50.037960607977098</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>48</v>
       </c>
@@ -1988,7 +1988,7 @@
         <v>80.694114075684396</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>49</v>
       </c>
@@ -1996,7 +1996,7 @@
         <v>142.03447670406601</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>50</v>
       </c>
@@ -2004,7 +2004,7 @@
         <v>242.78420072507299</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>51</v>
       </c>
@@ -2012,7 +2012,7 @@
         <v>395.16801262103098</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>52</v>
       </c>
@@ -2020,7 +2020,7 @@
         <v>453.92523866287002</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>53</v>
       </c>
@@ -2028,7 +2028,7 @@
         <v>545.34814528577999</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>54</v>
       </c>
@@ -2036,7 +2036,7 @@
         <v>16.6068838939144</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>55</v>
       </c>
@@ -2044,7 +2044,7 @@
         <v>40.1789454674567</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>56</v>
       </c>
@@ -2052,7 +2052,7 @@
         <v>47.535941074988997</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>57</v>
       </c>
@@ -2060,7 +2060,7 @@
         <v>73.227852627939399</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>58</v>
       </c>
@@ -2068,7 +2068,7 @@
         <v>128.90643190038401</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>59</v>
       </c>
@@ -2076,7 +2076,7 @@
         <v>208.83709094514899</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>60</v>
       </c>
@@ -2084,7 +2084,7 @@
         <v>379.17690088831603</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>61</v>
       </c>
@@ -2092,7 +2092,7 @@
         <v>436.38905265211702</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>62</v>
       </c>
@@ -2100,7 +2100,7 @@
         <v>537.95354396594701</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>63</v>
       </c>
@@ -2111,7 +2111,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>64</v>
       </c>
@@ -2122,7 +2122,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>65</v>
       </c>
@@ -2133,7 +2133,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>66</v>
       </c>
@@ -2144,7 +2144,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>67</v>
       </c>
@@ -2155,7 +2155,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>68</v>
       </c>
@@ -2166,12 +2166,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>70</v>
       </c>
@@ -2193,9 +2193,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>71</v>
       </c>
@@ -2260,7 +2260,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>92</v>
       </c>
@@ -2328,7 +2328,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>94</v>
       </c>
@@ -2396,7 +2396,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2464,7 +2464,7 @@
         <v>1012.25535849868</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2532,7 +2532,7 @@
         <v>0.42197169664123502</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2600,7 +2600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -2668,7 +2668,7 @@
         <v>-1.0099098789855501</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2736,7 +2736,7 @@
         <v>44.290462359607503</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -2804,7 +2804,7 @@
         <v>7.9367613582745902</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -2872,7 +2872,7 @@
         <v>86.805411186089103</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>63</v>
       </c>
@@ -2940,7 +2940,7 @@
         <v>39446.304762219399</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>64</v>
       </c>
@@ -3008,7 +3008,7 @@
         <v>5630.6635511963104</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>65</v>
       </c>
@@ -3076,7 +3076,7 @@
         <v>2443.3107422717899</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>66</v>
       </c>
@@ -3144,7 +3144,7 @@
         <v>107.96347554112501</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>67</v>
       </c>
@@ -3212,7 +3212,7 @@
         <v>15.8707947900457</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -3280,7 +3280,7 @@
         <v>1.8309034249649501E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>11</v>
       </c>
@@ -3348,7 +3348,7 @@
         <v>4.5155470916682401E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -3416,7 +3416,7 @@
         <v>3.6658275573723802E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -3484,7 +3484,7 @@
         <v>12.017117637318201</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>14</v>
       </c>
@@ -3552,7 +3552,7 @@
         <v>2.5039008613783</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>15</v>
       </c>
@@ -3620,7 +3620,7 @@
         <v>3.6087851817732699</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>16</v>
       </c>
@@ -3688,7 +3688,7 @@
         <v>19.58439165842</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>68</v>
       </c>
@@ -3756,12 +3756,12 @@
         <v>0.47264531261661002</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>17</v>
       </c>
@@ -3829,7 +3829,7 @@
         <v>124.58411801334999</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>70</v>
       </c>
@@ -3897,7 +3897,7 @@
         <v>108.532476043188</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>18</v>
       </c>
@@ -3965,7 +3965,7 @@
         <v>58.173357385668503</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>19</v>
       </c>
@@ -4033,7 +4033,7 @@
         <v>56.854174359037003</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>20</v>
       </c>
@@ -4114,9 +4114,9 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>71</v>
       </c>
@@ -4124,7 +4124,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>92</v>
       </c>
@@ -4138,7 +4138,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>94</v>
       </c>
@@ -4152,7 +4152,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>96</v>
       </c>
@@ -4166,7 +4166,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>98</v>
       </c>
@@ -4180,7 +4180,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>100</v>
       </c>
@@ -4194,7 +4194,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>102</v>
       </c>
@@ -4202,7 +4202,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>0</v>
       </c>
@@ -4216,7 +4216,7 @@
         <v>18.763878203506199</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>5</v>
       </c>
@@ -4230,7 +4230,7 @@
         <v>42.552912158067301</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>10</v>
       </c>
@@ -4244,7 +4244,7 @@
         <v>50.037960607977098</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>30</v>
       </c>
@@ -4258,7 +4258,7 @@
         <v>80.694114075684396</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>50</v>
       </c>
@@ -4272,7 +4272,7 @@
         <v>142.03447670406601</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>70</v>
       </c>
@@ -4286,7 +4286,7 @@
         <v>242.78420072507299</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>90</v>
       </c>
@@ -4300,7 +4300,7 @@
         <v>395.16801262103098</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>95</v>
       </c>
@@ -4314,7 +4314,7 @@
         <v>453.92523866287002</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>100</v>
       </c>
@@ -4341,9 +4341,9 @@
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>71</v>
       </c>
@@ -4408,7 +4408,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>92</v>
       </c>
@@ -4476,7 +4476,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>94</v>
       </c>
@@ -4544,7 +4544,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -4612,7 +4612,7 @@
         <v>1012.25535849868</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -4680,7 +4680,7 @@
         <v>0.42197169664123502</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -4748,7 +4748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -4816,7 +4816,7 @@
         <v>-1.0099098789855501</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -4884,7 +4884,7 @@
         <v>44.290462359607503</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -4952,7 +4952,7 @@
         <v>7.9367613582745902</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -5020,7 +5020,7 @@
         <v>86.805411186089103</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>63</v>
       </c>
@@ -5088,7 +5088,7 @@
         <v>39446.304762219399</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>64</v>
       </c>
@@ -5156,7 +5156,7 @@
         <v>5630.6635511963104</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>65</v>
       </c>
@@ -5224,7 +5224,7 @@
         <v>2443.3107422717899</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>66</v>
       </c>
@@ -5292,7 +5292,7 @@
         <v>107.96347554112501</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>67</v>
       </c>
@@ -5360,7 +5360,7 @@
         <v>15.8707947900457</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -5428,7 +5428,7 @@
         <v>1.8309034249649501E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>11</v>
       </c>
@@ -5496,7 +5496,7 @@
         <v>4.5155470916682401E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -5564,7 +5564,7 @@
         <v>3.6658275573723802E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -5632,7 +5632,7 @@
         <v>12.017117637318201</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>14</v>
       </c>
@@ -5700,7 +5700,7 @@
         <v>2.5039008613783</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>15</v>
       </c>
@@ -5768,7 +5768,7 @@
         <v>3.6087851817732699</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>16</v>
       </c>
@@ -5836,7 +5836,7 @@
         <v>19.58439165842</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>68</v>
       </c>
@@ -5904,12 +5904,12 @@
         <v>0.47264531261661002</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>17</v>
       </c>
@@ -5977,7 +5977,7 @@
         <v>124.58411801334999</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>70</v>
       </c>
@@ -6045,7 +6045,7 @@
         <v>108.532476043188</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>18</v>
       </c>
@@ -6113,7 +6113,7 @@
         <v>58.173357385668503</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>19</v>
       </c>
@@ -6181,7 +6181,7 @@
         <v>56.854174359037003</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>20</v>
       </c>
@@ -6258,11 +6258,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CC5748B-F673-4C78-8AE2-C13DC672ED93}">
   <dimension ref="A1:GE103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:187" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>104</v>
       </c>
@@ -6822,7 +6824,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="2" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>285</v>
       </c>
@@ -6941,7 +6943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>286</v>
       </c>
@@ -7054,7 +7056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>287</v>
       </c>
@@ -7170,7 +7172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>288</v>
       </c>
@@ -7286,7 +7288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>289</v>
       </c>
@@ -7405,7 +7407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>290</v>
       </c>
@@ -7527,7 +7529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>291</v>
       </c>
@@ -7649,7 +7651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>292</v>
       </c>
@@ -7762,7 +7764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>293</v>
       </c>
@@ -7878,7 +7880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>294</v>
       </c>
@@ -8003,7 +8005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>295</v>
       </c>
@@ -8128,7 +8130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>296</v>
       </c>
@@ -8256,7 +8258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>297</v>
       </c>
@@ -8384,7 +8386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>298</v>
       </c>
@@ -8518,7 +8520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>299</v>
       </c>
@@ -8643,7 +8645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:181" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>300</v>
       </c>
@@ -8777,7 +8779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:181" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>301</v>
       </c>
@@ -8902,7 +8904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:181" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>302</v>
       </c>
@@ -9030,7 +9032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:181" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>303</v>
       </c>
@@ -9158,7 +9160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:181" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>304</v>
       </c>
@@ -9283,7 +9285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:181" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>305</v>
       </c>
@@ -9420,7 +9422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:181" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>306</v>
       </c>
@@ -9545,7 +9547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:181" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>307</v>
       </c>
@@ -9670,7 +9672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:181" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>308</v>
       </c>
@@ -9798,7 +9800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:181" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>309</v>
       </c>
@@ -9923,7 +9925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:181" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>310</v>
       </c>
@@ -10051,7 +10053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:181" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>311</v>
       </c>
@@ -10179,7 +10181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:181" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>312</v>
       </c>
@@ -10313,7 +10315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:181" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>313</v>
       </c>
@@ -10441,7 +10443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:181" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>314</v>
       </c>
@@ -10569,7 +10571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:181" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:181" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>315</v>
       </c>
@@ -10688,7 +10690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>316</v>
       </c>
@@ -10804,7 +10806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>317</v>
       </c>
@@ -11367,7 +11369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>318</v>
       </c>
@@ -11930,7 +11932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>319</v>
       </c>
@@ -12493,7 +12495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>320</v>
       </c>
@@ -13056,7 +13058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>321</v>
       </c>
@@ -13619,7 +13621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>322</v>
       </c>
@@ -14182,7 +14184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>323</v>
       </c>
@@ -14745,7 +14747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>324</v>
       </c>
@@ -15308,7 +15310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>325</v>
       </c>
@@ -15871,7 +15873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>326</v>
       </c>
@@ -16434,7 +16436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>327</v>
       </c>
@@ -16997,7 +16999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>328</v>
       </c>
@@ -17560,7 +17562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>329</v>
       </c>
@@ -18123,7 +18125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>330</v>
       </c>
@@ -18686,7 +18688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>331</v>
       </c>
@@ -19249,7 +19251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>332</v>
       </c>
@@ -19812,7 +19814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>333</v>
       </c>
@@ -20375,7 +20377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>334</v>
       </c>
@@ -20938,7 +20940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>335</v>
       </c>
@@ -21501,7 +21503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>336</v>
       </c>
@@ -22064,7 +22066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>337</v>
       </c>
@@ -22627,7 +22629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>338</v>
       </c>
@@ -23190,7 +23192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>339</v>
       </c>
@@ -23753,7 +23755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>340</v>
       </c>
@@ -24316,7 +24318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>341</v>
       </c>
@@ -24879,7 +24881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>342</v>
       </c>
@@ -25442,7 +25444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>343</v>
       </c>
@@ -26005,7 +26007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>344</v>
       </c>
@@ -26568,7 +26570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>345</v>
       </c>
@@ -27131,7 +27133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>346</v>
       </c>
@@ -27694,7 +27696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>347</v>
       </c>
@@ -28257,7 +28259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>348</v>
       </c>
@@ -28820,7 +28822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>349</v>
       </c>
@@ -29383,7 +29385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>350</v>
       </c>
@@ -29946,7 +29948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>351</v>
       </c>
@@ -30509,7 +30511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>352</v>
       </c>
@@ -31072,7 +31074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>353</v>
       </c>
@@ -31635,7 +31637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>354</v>
       </c>
@@ -32198,7 +32200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>355</v>
       </c>
@@ -32761,7 +32763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>356</v>
       </c>
@@ -33324,7 +33326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>357</v>
       </c>
@@ -33887,7 +33889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>358</v>
       </c>
@@ -34450,7 +34452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>359</v>
       </c>
@@ -35013,7 +35015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>360</v>
       </c>
@@ -35576,7 +35578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>361</v>
       </c>
@@ -36139,7 +36141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>362</v>
       </c>
@@ -36702,7 +36704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>363</v>
       </c>
@@ -37265,7 +37267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>364</v>
       </c>
@@ -37828,7 +37830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>365</v>
       </c>
@@ -38391,7 +38393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>366</v>
       </c>
@@ -38840,7 +38842,7 @@
         <v>42309.718877553903</v>
       </c>
     </row>
-    <row r="84" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>367</v>
       </c>
@@ -39289,7 +39291,7 @@
         <v>41933.600365733299</v>
       </c>
     </row>
-    <row r="85" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>368</v>
       </c>
@@ -39738,7 +39740,7 @@
         <v>41531.151994020198</v>
       </c>
     </row>
-    <row r="86" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>369</v>
       </c>
@@ -40187,7 +40189,7 @@
         <v>41144.814836060003</v>
       </c>
     </row>
-    <row r="87" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>370</v>
       </c>
@@ -40636,7 +40638,7 @@
         <v>40774.325955347304</v>
       </c>
     </row>
-    <row r="88" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>371</v>
       </c>
@@ -41085,7 +41087,7 @@
         <v>40419.363236392601</v>
       </c>
     </row>
-    <row r="89" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>372</v>
       </c>
@@ -41534,7 +41536,7 @@
         <v>40079.571759667502</v>
       </c>
     </row>
-    <row r="90" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>373</v>
       </c>
@@ -41983,7 +41985,7 @@
         <v>39754.582096353202</v>
       </c>
     </row>
-    <row r="91" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>374</v>
       </c>
@@ -42432,7 +42434,7 @@
         <v>39444.022918498602</v>
       </c>
     </row>
-    <row r="92" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>375</v>
       </c>
@@ -42881,7 +42883,7 @@
         <v>39147.529594250198</v>
       </c>
     </row>
-    <row r="93" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>376</v>
       </c>
@@ -43330,7 +43332,7 @@
         <v>38864.749939397501</v>
       </c>
     </row>
-    <row r="94" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>377</v>
       </c>
@@ -43779,7 +43781,7 @@
         <v>38595.347951702002</v>
       </c>
     </row>
-    <row r="95" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>378</v>
       </c>
@@ -44228,7 +44230,7 @@
         <v>38339.006114295</v>
       </c>
     </row>
-    <row r="96" spans="1:187" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:187" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>379</v>
       </c>
@@ -44677,7 +44679,7 @@
         <v>38087.897078353802</v>
       </c>
     </row>
-    <row r="97" spans="1:185" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:185" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>380</v>
       </c>
@@ -45126,7 +45128,7 @@
         <v>37839.950577956901</v>
       </c>
     </row>
-    <row r="98" spans="1:185" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:185" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>381</v>
       </c>
@@ -45575,7 +45577,7 @@
         <v>37600.8813475883</v>
       </c>
     </row>
-    <row r="99" spans="1:185" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:185" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>382</v>
       </c>
@@ -46024,7 +46026,7 @@
         <v>32758.038255941501</v>
       </c>
     </row>
-    <row r="100" spans="1:185" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:185" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>383</v>
       </c>
@@ -46473,7 +46475,7 @@
         <v>32278.771217219899</v>
       </c>
     </row>
-    <row r="101" spans="1:185" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:185" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>384</v>
       </c>
@@ -46922,7 +46924,7 @@
         <v>31719.511433003699</v>
       </c>
     </row>
-    <row r="102" spans="1:185" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:185" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>385</v>
       </c>
@@ -47371,7 +47373,7 @@
         <v>31239.202196404502</v>
       </c>
     </row>
-    <row r="103" spans="1:185" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:185" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>386</v>
       </c>
